--- a/CAD/Inventor/parameters.xlsx
+++ b/CAD/Inventor/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satom\Desktop\Robot\CAD\Inventor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4052B1-A451-4848-A8D2-ED9088F7B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210662A-4F41-41B6-BF7D-0CC7009CABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59430" yWindow="9480" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7530" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Parameter</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Thickness of hardboard</t>
+  </si>
+  <si>
+    <t>motor_centerline_height</t>
+  </si>
+  <si>
+    <t>Height of motor shaft center from top of hardboard</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -479,6 +485,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
